--- a/Diccionario de Datos.xlsx
+++ b/Diccionario de Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Proyecto_final3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA214F23-EA54-48F6-B169-61EAD8837E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C14B7F-1546-409E-8AD2-18F5CE580CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10360" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{F3365A00-C864-43C9-87E3-8C9F08FC9C36}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{F3365A00-C864-43C9-87E3-8C9F08FC9C36}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasGenerales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="110">
   <si>
     <t>Campo</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Contacto del provedor</t>
+  </si>
+  <si>
+    <t>Tabla rol use</t>
+  </si>
+  <si>
+    <t>Tabla person</t>
+  </si>
+  <si>
+    <t>nombre_completo</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +580,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,13 +594,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +614,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,29 +932,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDA6B70-5A81-4454-9E44-7AF807110589}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.53125" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -980,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1065,16 +1073,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1159,16 +1167,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1270,16 +1278,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1381,16 +1389,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1473,16 +1481,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
@@ -1565,16 +1573,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>74</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
@@ -1672,16 +1680,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,61 +1706,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15" t="s">
+      <c r="B62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
+      <c r="B63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15" t="s">
+      <c r="B64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,23 +1777,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
+      <c r="B69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1795,12 +1803,12 @@
         <v>100</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1810,12 +1818,12 @@
         <v>100</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1824,8 +1832,8 @@
       <c r="C72" s="2">
         <v>20</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1848,29 +1856,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036C4A90-028B-44B5-8051-B5916F232A62}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1972,16 +1980,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,48 +2006,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,56 +2064,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="10">
+        <v>100</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
